--- a/pa/output.xlsx
+++ b/pa/output.xlsx
@@ -476,8 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蒹葭는 襄公을 풍자한 詩이다
-&lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니 장차 나라를 견고하게 할 수 없었다.</t>
+          <t>蒹葭는 襄公을 풍자한 詩이다 &lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니 장차 나라를 견고하게 할 수 없었다.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -490,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -518,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -546,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -556,17 +555,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘蒹葭(三章章八句)’至‘國焉’ ○正義曰：作蒹葭詩者, 刺襄公也.</t>
+          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>序의 [蒹葭]에서 [國焉]까지
-○正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
+          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8357218503952026</v>
+        <v>0.8253705501556396</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -575,7 +573,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -603,7 +601,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -631,7 +629,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -659,7 +657,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -674,8 +672,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>갈대 무성하더니
-白露 서리가 되었네</t>
+          <t>갈대 무성하더니 白露 서리가 되었네</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -688,7 +685,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -716,7 +713,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -744,7 +741,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -772,7 +769,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -800,7 +797,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -815,8 +812,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이른바 그 분이
-강물 저쪽에 있건만</t>
+          <t>이른바 그 분이 강물 저쪽에 있건만</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -829,7 +825,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -857,7 +853,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -885,7 +881,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -913,7 +909,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -928,8 +924,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>물살 거슬러 올라가 따르려니
-길은 막히고 멀기만 하더니</t>
+          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -942,7 +937,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -970,7 +965,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -998,7 +993,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1013,8 +1008,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>물살을 따라 건너가 따르니
-가만히 강 가운데에 있네</t>
+          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1027,7 +1021,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1049,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1059,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 ○宛은 本亦作苑이라</t>
+          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다.공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다.○宛은 苑으로 되어 있는 本도 있다.</t>
+          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다.공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다.宛은 苑으로 되어 있는 本도 있다.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8443402647972107</v>
+        <v>0.8258097171783447</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1083,7 +1077,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1093,17 +1087,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>經의 [蒹葭]에서 [中央]까지
-○正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
+          <t>經의 [蒹葭]에서 [中央]까지 正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6858633160591125</v>
+        <v>0.5543035864830017</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1112,7 +1105,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1115,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1131,7 +1124,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6120797395706177</v>
+        <v>0.6846473217010498</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1140,7 +1133,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1161,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1189,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1217,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1227,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ ○[正義曰]</t>
+          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1243,7 +1236,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4914612770080566</v>
+        <v>0.8072580695152283</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1252,7 +1245,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1262,16 +1255,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>○鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
+          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>○鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히복종한다는 것을 興한 것이다.</t>
+          <t>鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는것을 興한 것이다.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.7744051814079285</v>
+        <v>0.7747024893760681</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1280,7 +1273,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1301,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1329,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1339,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ ○正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>傳의 [蒹葭]에서 [後興]까지
-○正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.蘆는 갈대이다.</t>
+          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.蘆는 갈대이다.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8281235694885254</v>
+        <v>0.817791223526001</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1365,7 +1357,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1385,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1413,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1441,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1469,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1497,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1525,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1535,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
+          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1552,7 +1544,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6728165745735168</v>
+        <v>0.5618239641189575</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1561,7 +1553,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1563,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
+          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1580,7 +1572,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6533661484718323</v>
+        <v>0.5398732423782349</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1589,7 +1581,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1609,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1637,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1647,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>箋‘蒹葭’至‘則服’ ○正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
+          <t>箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>箋의 [蒹葭]에서 [則服]까지
-○正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.</t>
+          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8695577383041382</v>
+        <v>0.8706756234169006</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1674,7 +1665,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1684,17 +1675,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ ○正義曰：‘伊 維’, 釋詁文.傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>傳의 [伊維]에서 [難至]까지
-○正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
+          <t>傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.788739800453186</v>
+        <v>0.7793066501617432</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1703,7 +1693,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1703,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.”</t>
+          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1722,7 +1712,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6407256126403809</v>
+        <v>0.6358832716941833</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1731,7 +1721,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1731,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.”</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1750,7 +1740,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8105555772781372</v>
+        <v>0.7228052020072937</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1759,7 +1749,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1777,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1797,17 +1787,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’○正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>箋의 [伊當]에서 [言遠]까지
-○正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.</t>
+          <t>箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8698030710220337</v>
+        <v>0.8611887693405151</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1816,7 +1805,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1815,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1835,7 +1824,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.7664389610290527</v>
+        <v>0.6352583169937134</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1844,7 +1833,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1843,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
+          <t>以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1863,7 +1852,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.5427137613296509</v>
+        <v>0.6300444006919861</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1872,7 +1861,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1880,14 +1869,18 @@
       <c r="A52" t="n">
         <v>21</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>0.8312837481498718</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1896,7 +1889,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1899,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.”</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>傳의 [逆流]에서 [以至]까지
-○正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
+          <t>傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8039608001708984</v>
+        <v>0.6971477866172791</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1925,7 +1917,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1927,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”</t>
+          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.”</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1944,7 +1936,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8628654479980469</v>
+        <v>0.8004422187805176</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1953,7 +1945,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1955,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
+          <t>孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1972,7 +1964,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.6960535645484924</v>
+        <v>0.6946289539337158</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1981,7 +1973,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1983,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
+          <t>然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2000,7 +1992,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.7297542095184326</v>
+        <v>0.7859161496162415</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2009,7 +2001,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2011,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
+          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2028,7 +2020,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5244451761245728</v>
+        <v>0.7668221592903137</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2037,7 +2029,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2039,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2056,7 +2048,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.5184857249259949</v>
+        <v>0.7981603145599365</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2065,7 +2057,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2067,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ ○</t>
+          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2084,7 +2076,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.4643453359603882</v>
+        <v>0.8034316301345825</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2093,7 +2085,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2108,8 +2100,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>갈대 무성하니
-白露 아직 마르지 않았네</t>
+          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2122,7 +2113,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2141,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2169,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2179,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也. 彼言露晞, 謂露盡乾.</t>
+          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>傳의 [晞 乾]
-○正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다.그리하여 晞가 ‘마르다’임을 안 것이다.</t>
+          <t>傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다.그리하여 晞가 ‘마르다’임을 안 것이다.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7720102667808533</v>
+        <v>0.8004265427589417</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2207,7 +2197,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2207,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
+          <t>彼言露晞, 謂露盡乾.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2226,7 +2216,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.6629335880279541</v>
+        <v>0.7963771224021912</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2235,7 +2225,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2235,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
+          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2254,7 +2244,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.7299355268478394</v>
+        <v>0.8301315307617188</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2263,7 +2253,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2263,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>傳‘晞 乾’ ○</t>
+          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2282,7 +2272,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.5567781329154968</v>
+        <v>0.8604388833045959</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2291,7 +2281,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2306,8 +2296,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>이른바 그분이
-강물 가에 있건만</t>
+          <t>이른바 그분이 강물 가에 있건만</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2320,7 +2309,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2337,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2358,17 +2347,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>傳‘湄 水隒’○正義曰 ; 釋水云“水草交為湄.”謂水草交際之處, 水之岸也.釋山云</t>
+          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”謂水草交際之處, 水之岸也.釋山云</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>傳의 [湄 水隒]
-○正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
+          <t>傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.805562436580658</v>
+        <v>0.8022167682647705</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2377,7 +2365,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2393,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2420,8 +2408,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>거슬러 올라가 따르려하니
-길은 험하고 오르막이더니</t>
+          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2434,7 +2421,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2449,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2472,16 +2459,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>箋云：升者는 言其難至니 如升阪이라 ○躋는 本又作隮라</t>
+          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다.○躋는 隮로 되어 있는 본도 있다.</t>
+          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다.躋는 隮로 되어 있는 본도 있다.</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.7540966272354126</v>
+        <v>0.71795254945755</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2490,7 +2477,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2505,8 +2492,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>물살 따라 가니
-가만히 강 가운데 모래톱에 있다네</t>
+          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다네</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2519,7 +2505,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2533,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2557,17 +2543,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>傳‘坻 小渚’○正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.”</t>
+          <t>傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.”</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>傳의 [坻小渚]
-○正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.</t>
+          <t>傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.8249412775039673</v>
+        <v>0.8238965272903442</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2576,7 +2561,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2589,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2619,8 +2604,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>갈대 무성하니
-白露 아직 그치지 않았네</t>
+          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2633,7 +2617,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2645,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2669,14 +2653,18 @@
       <c r="A80" t="n">
         <v>37</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>‘未已’는 ‘未止’와 같다.</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-1</v>
+        <v>0.6708110570907593</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2685,7 +2673,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2700,8 +2688,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>이른바 그 분이
-강가에 있건만</t>
+          <t>이른바 그 분이 강가에 있건만</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2714,7 +2701,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2729,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2757,8 +2744,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>물살 거슬러 따라가니
-길이 험하고 우회하더니</t>
+          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2771,7 +2757,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2785,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2813,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2837,17 +2823,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>傳‘右 出其右’ ○正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
+          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>傳의 [右 出其右]
-○正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다.만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다.箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
+          <t>傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기때문에 右가 우측으로 돌아 나가는 것임을 안 것이다.만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다.箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8656525611877441</v>
+        <v>0.8627259731292725</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2856,7 +2841,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2860,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.7017082571983337</v>
+        <v>0.7017083168029785</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2884,7 +2869,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2899,8 +2884,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>물살 따라 가니
-가만히 물 가운데 작은 모래톱에 있네</t>
+          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2913,7 +2897,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2925,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2953,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>simple_align</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>

--- a/pa/output.xlsx
+++ b/pa/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8371443152427673</v>
+        <v>0.837144136428833</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -532,11 +532,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>그런데 이제 襄公이 새로 諸侯가 되어 周나라의 禮法에 익숙하지 않았다.그리하여 國人들이 복종하지 않은 것이다.</t>
+          <t>그런데 이제 襄公이 새로 諸侯가 되어 周나라의 禮法에 익숙하지 않았다. 그리하여 國人들이 복종하지 않은 것이다.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.84239661693573</v>
+        <v>0.842974841594696</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,16 +555,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也.</t>
+          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
+          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8253705501556396</v>
+        <v>0.8530600070953369</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -583,16 +583,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
+          <t>作蒹葭詩者, 刺襄公也.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
+          <t>&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7907205820083618</v>
+        <v>0.8211386203765869</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -611,16 +611,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
+          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다.禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다.그리하여 풍자한 것이다.</t>
+          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6988344192504883</v>
+        <v>0.7907203435897827</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -639,16 +639,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>經三章, 皆言治國須禮之事.</t>
+          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
+          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8928597569465637</v>
+        <v>0.7059266567230225</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -663,20 +663,20 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
+          <t>經三章, 皆言治國須禮之事.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>갈대 무성하더니 白露 서리가 되었네</t>
+          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6139363050460815</v>
+        <v>0.892859935760498</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -691,20 +691,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
+          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>興이다.蒹은 물억새이고 葭는 갈대이다.蒼蒼은 ‘무성함’이다.</t>
+          <t>갈대 무성하더니 白露 서리가 되었네</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6550596356391907</v>
+        <v>0.6139363050460815</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
+          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
+          <t>興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8032606840133667</v>
+        <v>0.6563799381256104</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -747,20 +747,20 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면</t>
+          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>箋云：갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다.</t>
+          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6418812274932861</v>
+        <v>0.8032606244087219</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -779,16 +779,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라</t>
+          <t>箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.</t>
+          <t>箋云： 갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8109756112098694</v>
+        <v>0.6302105784416199</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -803,20 +803,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水一方이언마는</t>
+          <t>則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강물 저쪽에 있건만</t>
+          <t>興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5941693782806396</v>
+        <v>0.8109752535820007</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -831,20 +831,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>伊는 維也라 一方은 難至矣라</t>
+          <t>所謂伊人이 在水一方이언마는</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
+          <t>이른바 그 분이 강물 저쪽에 있건만</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7268454432487488</v>
+        <v>0.5941693782806396</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -859,20 +859,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
+          <t>伊는 維也라 一方은 難至矣라</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>箋云：伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다.</t>
+          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7893677949905396</v>
+        <v>0.7268454432487488</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -891,16 +891,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라</t>
+          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.</t>
+          <t>箋云：</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.883009672164917</v>
+        <v>0.6290428042411804</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -909,26 +909,26 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且長이러니</t>
+          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
+          <t>伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6541114449501038</v>
+        <v>0.6760941743850708</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -937,26 +937,26 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
+          <t>所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>물살을 거슬러 올라가는 것을 遡洄라 한다.禮를 거스르면 이를 수 없는 것이다.</t>
+          <t>이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7683857679367065</v>
+        <v>0.883009672164917</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -965,26 +965,26 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>箋云 此言不以敬順往求之면 則不能得見이라</t>
+          <t>遡洄從之하니 道阻且長이러니</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>箋云：이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.</t>
+          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7751446962356567</v>
+        <v>0.6541114449501038</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -999,20 +999,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中央이라</t>
+          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
+          <t>물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7416608333587646</v>
+        <v>0.7660127878189087</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1027,20 +1027,20 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
+          <t>箋云 此言不以敬順往求之면 則不能得見이라</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>물살을 따라 건너는 것을 遡游라고 한다.禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
+          <t>箋云： 이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7769056558609009</v>
+        <v>0.7871785163879395</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1055,20 +1055,20 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
+          <t>遡游從之하니 宛在水中央이라</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다.공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다.宛은 苑으로 되어 있는 本도 있다.</t>
+          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8258097171783447</v>
+        <v>0.7416608333587646</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ [正義曰]</t>
+          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>經의 [蒹葭]에서 [中央]까지 正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
+          <t>물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5543035864830017</v>
+        <v>0.7761338353157043</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1111,20 +1111,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
+          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
+          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6846473217010498</v>
+        <v>0.8214393258094788</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1143,16 +1143,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]：</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
+          <t>經의 [蒹葭]에서 [中央]까지 正義曰：</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8619853258132935</v>
+        <v>0.9133844375610352</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1171,16 +1171,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
+          <t>毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
+          <t>毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7535626888275146</v>
+        <v>0.6638029813766479</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1199,16 +1199,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
+          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다.만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
+          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6731751561164856</v>
+        <v>0.6063791513442993</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1227,16 +1227,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다.그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.</t>
+          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8072580695152283</v>
+        <v>0.4212241172790527</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1251,20 +1251,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
+          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는것을 興한 것이다.</t>
+          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.7747024893760681</v>
+        <v>0.5885317921638489</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1279,20 +1279,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.在大水之一邊, 假喻以言遠.旣言此人在水一邊, 因以水行為喻.</t>
+          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가.큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다.이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다.물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은,공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다.어째서인가?현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.</t>
+          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.785835325717926</v>
+        <v>0.7657464146614075</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1307,20 +1307,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.何則?賢者, 難進而易退, 故不以敬順求之, 則不可得.欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
+          <t>然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다.”라고 여겼다.</t>
+          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6471708416938782</v>
+        <v>0.8006120920181274</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1335,20 +1335,20 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
+          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.蘆는 갈대이다.</t>
+          <t>鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.817791223526001</v>
+        <v>0.7750904560089111</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1363,20 +1363,20 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
+          <t>欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.在大水之一邊, 假喻以言遠.旣言此人在水一邊, 因以水行為喻.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
+          <t>周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가. 큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다. 이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다. 물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다. 어째서인가? 현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7793343067169189</v>
+        <v>0.7779960632324219</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1391,20 +1391,20 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.”</t>
+          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.何則?賢者, 難進而易退, 故不以敬順求之, 則不可得.欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.</t>
+          <t>襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다.”라고 여겼다.</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8590446710586548</v>
+        <v>0.6471710205078125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>祭義說養蠶之法云 “風戾以食之.”注云 “使露氣燥乃食蠶.”然則戾為燥之義.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
+          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.7149933576583862</v>
+        <v>0.8966668844223022</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1451,16 +1451,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
+          <t>‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다.그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
+          <t>‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7463127970695496</v>
+        <v>0.8083131909370422</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1479,16 +1479,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
+          <t>蘆는 갈대이다.”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8168491125106812</v>
+        <v>0.8269909620285034</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
+          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
+          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8231135606765747</v>
+        <v>0.6833386421203613</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1535,16 +1535,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
+          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
+          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.5618239641189575</v>
+        <v>0.4603641629219055</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1563,16 +1563,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
+          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
+          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5398732423782349</v>
+        <v>0.6004860997200012</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1591,16 +1591,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
+          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5873499512672424</v>
+        <v>0.4717444777488708</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1619,16 +1619,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다.이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다.그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
+          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6500298380851746</v>
+        <v>0.6129564642906189</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1643,20 +1643,20 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
+          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.</t>
+          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8706756234169006</v>
+        <v>0.5618240237236023</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1671,20 +1671,20 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.</t>
+          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
+          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7793066501617432</v>
+        <v>0.5398733615875244</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1699,20 +1699,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
+          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6358832716941833</v>
+        <v>0.5873498916625977</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1727,20 +1727,20 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.”</t>
+          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다.반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다.그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다.</t>
+          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7228052020072937</v>
+        <v>0.6520169377326965</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1755,20 +1755,20 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
+          <t>箋‘蒹葭’至‘則服’ 正義曰：</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
+          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8919433355331421</v>
+        <v>0.9238113164901733</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1783,20 +1783,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
+          <t>箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.</t>
+          <t>箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8611887693405151</v>
+        <v>0.8573475480079651</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1805,26 +1805,26 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
+          <t>傳의 [伊維]에서 [難至]까지 正義曰：</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.6352583169937134</v>
+        <v>0.8047933578491211</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1833,26 +1833,26 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
+          <t>傳以詩剌未能用周禮, 則未得人心,</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
+          <t>‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.6300444006919861</v>
+        <v>0.4020880460739136</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1861,26 +1861,26 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
+          <t>則所謂維, 是得人之道也.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
+          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8312837481498718</v>
+        <v>0.6986514329910278</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1889,26 +1889,26 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：</t>
+          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
+          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다.</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.6971477866172791</v>
+        <v>0.8038447499275208</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1923,20 +1923,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.”</t>
+          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다.</t>
+          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8004422187805176</v>
+        <v>0.7815546989440918</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1951,20 +1951,20 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”</t>
+          <t>箋‘伊當’至‘言遠’正義曰：</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
+          <t>箋의 [伊當]에서 [言遠]까지 正義曰：</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.6946289539337158</v>
+        <v>0.9469853639602661</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1973,26 +1973,26 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다.이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다.그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
+          <t>箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.7859161496162415</v>
+        <v>0.5094881653785706</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2001,26 +2001,26 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
+          <t>箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
+          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.7668221592903137</v>
+        <v>0.660552442073822</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2029,26 +2029,26 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
+          <t>‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
+          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.7981603145599365</v>
+        <v>0.6491866707801819</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2057,26 +2057,26 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다.그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
+          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8034316301345825</v>
+        <v>0.8312836885452271</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2085,26 +2085,26 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
+          <t>傳의 [逆流]에서 [以至]까지 正義曰：</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.636443018913269</v>
+        <v>0.9032797813415527</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2119,20 +2119,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
+          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者,</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>‘萋萋’는 ‘蒼蒼’과 같다.晞는 ‘마르다’이다.</t>
+          <t>≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다.</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.7828989028930664</v>
+        <v>0.8463854789733887</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2147,20 +2147,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>箋云 未晞는 未為霜이라</t>
+          <t>順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
+          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.7634514570236206</v>
+        <v>0.7462173104286194</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2175,20 +2175,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
+          <t>此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다.그리하여 晞가 ‘마르다’임을 안 것이다.</t>
+          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.8004265427589417</v>
+        <v>0.7635365724563599</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2203,20 +2203,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>彼言露晞, 謂露盡乾.</t>
+          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
+          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.7963771224021912</v>
+        <v>0.7668221592903137</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2231,20 +2231,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
+          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
+          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8301315307617188</v>
+        <v>0.798160195350647</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2259,20 +2259,20 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
+          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
+          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8604388833045959</v>
+        <v>0.8047173023223877</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2287,20 +2287,20 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之湄언마는</t>
+          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>이른바 그분이 강물 가에 있건만</t>
+          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.5352428555488586</v>
+        <v>0.636443018913269</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2315,20 +2315,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湄는 水隒(엄)이라</t>
+          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>湄는 ‘물가’이다.</t>
+          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.7992644309997559</v>
+        <v>0.777878999710083</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2343,20 +2343,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”謂水草交際之處, 水之岸也.釋山云</t>
+          <t>箋云 未晞는 未為霜이라</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
+          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.8022167682647705</v>
+        <v>0.7634514570236206</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2371,20 +2371,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>“重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
+          <t>傳‘晞 乾’ 正義曰：</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다.그리하여 ‘水隒’이라고 한 것이다.</t>
+          <t>傳의 [晞 乾] 正義曰：</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.7643752098083496</v>
+        <v>0.9361433982849121</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2399,20 +2399,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且躋러니</t>
+          <t>湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
+          <t>&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.6684041619300842</v>
+        <v>0.7301685214042664</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2427,20 +2427,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>躋는 升也라</t>
+          <t>彼言露晞, 謂露盡乾.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>躋는 ‘오르막’이다.</t>
+          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.6008854508399963</v>
+        <v>0.7963771820068359</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2455,20 +2455,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
+          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다.躋는 隮로 되어 있는 본도 있다.</t>
+          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.71795254945755</v>
+        <v>0.8301314115524292</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2483,20 +2483,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中坻(지)로다</t>
+          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다네</t>
+          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.6089887022972107</v>
+        <v>0.8604387640953064</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2511,20 +2511,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>坻는 小渚也라</t>
+          <t>所謂伊人이 在水之湄언마는</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>坻는 작은 모래톱이다.</t>
+          <t>이른바 그분이 강물 가에 있건만</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.6432160139083862</v>
+        <v>0.5352428555488586</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2539,20 +2539,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.”</t>
+          <t>湄는 水隒(엄)이라</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.</t>
+          <t>湄는 ‘물가’이다.</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.8238965272903442</v>
+        <v>0.7992644309997559</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2567,20 +2567,20 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.以渚易知, 故繫渚言之.</t>
+          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
+          <t>傳의 [湄 水隒] 正義曰：</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.8220968246459961</v>
+        <v>0.7816818952560425</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2595,20 +2595,20 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>蒹葭采采하니 白露未已로다</t>
+          <t>謂水草交際之處, 水之岸也.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
+          <t>≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.6772387027740479</v>
+        <v>0.6914339065551758</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>‘采采’는 ‘萋萋’와 같다.</t>
+          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.6614440679550171</v>
+        <v>0.7689713835716248</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2645,26 +2645,26 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>遡洄從之하니 道阻且躋러니</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>‘未已’는 ‘未止’와 같다.</t>
+          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.6708110570907593</v>
+        <v>0.6684041619300842</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2673,26 +2673,26 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之涘(사)언마는</t>
+          <t>躋는 升也라</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강가에 있건만</t>
+          <t>躋는 ‘오르막’이다.</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.5377265214920044</v>
+        <v>0.6008854508399963</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2707,20 +2707,20 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>涘는 厓也라</t>
+          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>涘는 ‘강가’이다.</t>
+          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.6128217577934265</v>
+        <v>0.7134823799133301</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2735,20 +2735,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且右러니</t>
+          <t>遡游從之하니 宛在水中坻(지)로다</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
+          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다네</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.6598045825958252</v>
+        <v>0.6089887022972107</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2763,20 +2763,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>右는 出其右也라</t>
+          <t>坻는 小渚也라</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>右는 우측으로 돌아서 나가는 것이다.</t>
+          <t>坻는 작은 모래톱이다.</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.7739986181259155</v>
+        <v>0.6432160139083862</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2791,20 +2791,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>箋云 右者는 言其迂迴也라</t>
+          <t>傳‘坻 小渚’正義曰：</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>箋云：右는 우회함을 말한 것이다.</t>
+          <t>傳의 [坻小渚] 正義曰：</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.798230767250061</v>
+        <v>0.9063905477523804</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2819,20 +2819,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
+          <t>釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기때문에 右가 우측으로 돌아 나가는 것임을 안 것이다.만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다.箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
+          <t>≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8627259731292725</v>
+        <v>0.7863779067993164</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2847,20 +2847,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
+          <t>以渚易知, 故繫渚言之.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
+          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.7017083168029785</v>
+        <v>0.6570646166801453</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2875,20 +2875,20 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中沚로다</t>
+          <t>蒹葭采采하니 白露未已로다</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
+          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.5899494290351868</v>
+        <v>0.6772387027740479</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2903,20 +2903,20 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>小渚曰沚라</t>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>작은 모래톱을 沚라고 한다.</t>
+          <t>‘采采’는 ‘萋萋’와 같다.</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5905945897102356</v>
+        <v>0.6614440679550171</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2925,33 +2925,313 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>37</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>‘未已’는 ‘未止’와 같다.</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6708110570907593</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>target_rich</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>所謂伊人이 在水之涘(사)언마는</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>이른바 그 분이 강가에 있건만</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5377265214920044</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>涘는 厓也라</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>涘는 ‘강가’이다.</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.6128217577934265</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>40</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>遡洄從之하니 道阻且右러니</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.6598045825958252</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>41</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>右는 出其右也라</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>右는 우측으로 돌아서 나가는 것이다.</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.7739986181259155</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>42</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>箋云 右者는 言其迂迴也라</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>箋云：右는 우회함을 말한 것이다.</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.798230767250061</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>43</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>傳의 [右 出其右] 正義曰： 이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.8634746670722961</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>43</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.7017082571983337</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>44</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>遡游從之하니 宛在水中沚로다</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.5899494290351868</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>45</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>小渚曰沚라</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>작은 모래톱을 沚라고 한다.</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.5905945897102356</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
         <v>46</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>蒹葭 三章이니 章八句라</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>&lt;蒹葭&gt; 3章이니 章마다 8句이다.</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D100" t="n">
         <v>0.7767410278320312</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>sequential_1to1</t>
         </is>

--- a/pa/output.xlsx
+++ b/pa/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.837144136428833</v>
+        <v>0.8371443152427673</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.842974841594696</v>
+        <v>0.8429751992225647</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,16 +555,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：</t>
+          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：</t>
+          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8530600070953369</v>
+        <v>0.8253705501556396</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -583,16 +583,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>作蒹葭詩者, 刺襄公也.</t>
+          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
+          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8211386203765869</v>
+        <v>0.7907205820083618</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -611,16 +611,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
+          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
+          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7907203435897827</v>
+        <v>0.705926775932312</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -639,16 +639,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
+          <t>經三章, 皆言治國須禮之事.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다.</t>
+          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7059266567230225</v>
+        <v>0.8928597569465637</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -663,20 +663,20 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>經三章, 皆言治國須禮之事.</t>
+          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
+          <t>갈대 무성하더니 白露 서리가 되었네</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.892859935760498</v>
+        <v>0.6139363050460815</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -691,20 +691,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
+          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>갈대 무성하더니 白露 서리가 되었네</t>
+          <t>興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6139363050460815</v>
+        <v>0.6563800573348999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
+          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다.</t>
+          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6563799381256104</v>
+        <v>0.8032606840133667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -747,20 +747,20 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
+          <t>箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
+          <t>箋云：갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8032606244087219</v>
+        <v>0.6418812274932861</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -779,16 +779,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면</t>
+          <t>則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>箋云： 갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다.</t>
+          <t>興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6302105784416199</v>
+        <v>0.8109756112098694</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -803,20 +803,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라</t>
+          <t>所謂伊人이 在水一方이언마는</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.</t>
+          <t>이른바 그 분이 강물 저쪽에 있건만</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8109752535820007</v>
+        <v>0.5941693782806396</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -831,20 +831,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水一方이언마는</t>
+          <t>伊는 維也라 一方은 難至矣라</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강물 저쪽에 있건만</t>
+          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5941693782806396</v>
+        <v>0.7268454432487488</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -859,20 +859,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>伊는 維也라 一方은 難至矣라</t>
+          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
+          <t>箋云：伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7268454432487488</v>
+        <v>0.7893677949905396</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -891,16 +891,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
+          <t>所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>箋云：</t>
+          <t>이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6290428042411804</v>
+        <v>0.883009672164917</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -909,26 +909,26 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
+          <t>遡洄從之하니 道阻且長이러니</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다.</t>
+          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6760941743850708</v>
+        <v>0.6541114449501038</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -937,26 +937,26 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라</t>
+          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.</t>
+          <t>물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.883009672164917</v>
+        <v>0.7660127878189087</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -965,26 +965,26 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且長이러니</t>
+          <t>箋云 此言不以敬順往求之면 則不能得見이라</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
+          <t>箋云：이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6541114449501038</v>
+        <v>0.7751446962356567</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -999,20 +999,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
+          <t>遡游從之하니 宛在水中央이라</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.</t>
+          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7660127878189087</v>
+        <v>0.7416608333587646</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1027,20 +1027,20 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>箋云 此言不以敬順往求之면 則不能得見이라</t>
+          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>箋云： 이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.</t>
+          <t>물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7871785163879395</v>
+        <v>0.7761338353157043</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1055,20 +1055,20 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中央이라</t>
+          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
+          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7416608333587646</v>
+        <v>0.8214393258094788</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
+          <t>經의 [蒹葭]에서 [中央]까지 正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7761338353157043</v>
+        <v>0.5543035864830017</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1111,20 +1111,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
+          <t>：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.</t>
+          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8214393258094788</v>
+        <v>0.6846473217010498</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1143,16 +1143,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ [正義曰]：</t>
+          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>經의 [蒹葭]에서 [中央]까지 正義曰：</t>
+          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9133844375610352</v>
+        <v>0.8619853258132935</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1171,16 +1171,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
+          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
+          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6638029813766479</v>
+        <v>0.7535626888275146</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1199,16 +1199,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
+          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
+          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6063791513442993</v>
+        <v>0.6774843335151672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1227,16 +1227,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
+          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
+          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가. ”라고 여겼다.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4212241172790527</v>
+        <v>0.8081142902374268</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1251,20 +1251,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
+          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
+          <t>鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5885317921638489</v>
+        <v>0.7750903964042664</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1279,20 +1279,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.</t>
+          <t>欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.在大水之一邊, 假喻以言遠.旣言此人在水一邊, 因以水行為喻.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
+          <t>周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가. 큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다. 이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다. 물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다. 어째서인가? 현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7657464146614075</v>
+        <v>0.7779960036277771</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1307,20 +1307,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.何則?賢者, 難進而易退, 故不以敬順求之, 則不可得.欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.</t>
+          <t>襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다. ”라고 여겼다.</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8006120920181274</v>
+        <v>0.6496252417564392</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1335,20 +1335,20 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다.</t>
+          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다. 蘆는 갈대이다.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.7750904560089111</v>
+        <v>0.8199296593666077</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1363,20 +1363,20 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.在大水之一邊, 假喻以言遠.旣言此人在水一邊, 因以水行為喻.</t>
+          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가. 큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다. 이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다. 물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다. 어째서인가? 현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.</t>
+          <t>”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7779960632324219</v>
+        <v>0.7793343067169189</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1391,20 +1391,20 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.何則?賢者, 難進而易退, 故不以敬順求之, 則不可得.欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
+          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.”</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다.”라고 여겼다.</t>
+          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6471710205078125</v>
+        <v>0.8566077947616577</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：</t>
+          <t>祭義說養蠶之法云 “風戾以食之.”注云 “使露氣燥乃食蠶.”然則戾為燥之義.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：</t>
+          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다. ”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다. ”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8966668844223022</v>
+        <v>0.7095450758934021</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1451,16 +1451,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
+          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.</t>
+          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8083131909370422</v>
+        <v>0.7414759397506714</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1479,16 +1479,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
+          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蘆는 갈대이다.”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
+          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8269909620285034</v>
+        <v>0.8168491125106812</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.</t>
+          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6833386421203613</v>
+        <v>0.8231135606765747</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1535,16 +1535,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
+          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
+          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4603641629219055</v>
+        <v>0.5618239641189575</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1563,16 +1563,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
+          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6004860997200012</v>
+        <v>0.5398732423782349</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1591,16 +1591,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中.</t>
+          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
+          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4717444777488708</v>
+        <v>0.5873499512672424</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1619,16 +1619,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
+          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
+          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6129564642906189</v>
+        <v>0.6520169377326965</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1643,20 +1643,20 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
+          <t>箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
+          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다. ’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다. ’고 한 것이다.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.5618240237236023</v>
+        <v>0.8689559698104858</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1671,20 +1671,20 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
+          <t>傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5398733615875244</v>
+        <v>0.7793066501617432</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1699,20 +1699,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
+          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
+          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5873498916625977</v>
+        <v>0.6358833312988281</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1727,20 +1727,20 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.”</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
+          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다. ”라고 한 것이다.</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6520169377326965</v>
+        <v>0.7251957058906555</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1755,20 +1755,20 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>箋‘蒹葭’至‘則服’ 正義曰：</t>
+          <t>‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：</t>
+          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9238113164901733</v>
+        <v>0.8919433355331421</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1783,20 +1783,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.</t>
+          <t>箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다. ’라고 여겼다.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8573475480079651</v>
+        <v>0.8623519539833069</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1805,26 +1805,26 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>傳의 [伊維]에서 [難至]까지 正義曰：</t>
+          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8047933578491211</v>
+        <v>0.6352583169937134</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1833,26 +1833,26 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>傳以詩剌未能用周禮, 則未得人心,</t>
+          <t>以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
+          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.4020880460739136</v>
+        <v>0.6300444006919861</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1861,26 +1861,26 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>則所謂維, 是得人之道也.</t>
+          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
+          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.6986514329910278</v>
+        <v>0.8312837481498718</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1889,26 +1889,26 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다.</t>
+          <t>傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8038447499275208</v>
+        <v>0.6971477866172791</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1923,20 +1923,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
+          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.”</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
+          <t>”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.7815546989440918</v>
+        <v>0.7993549108505249</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1951,20 +1951,20 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：</t>
+          <t>孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>箋의 [伊當]에서 [言遠]까지 正義曰：</t>
+          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.9469853639602661</v>
+        <v>0.6946289539337158</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1973,26 +1973,26 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：</t>
+          <t>然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.</t>
+          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.5094881653785706</v>
+        <v>0.7850691080093384</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2001,26 +2001,26 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
+          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
+          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.660552442073822</v>
+        <v>0.7668221592903137</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2029,26 +2029,26 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
+          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
+          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.6491866707801819</v>
+        <v>0.7981603145599365</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2057,26 +2057,26 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
+          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
+          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8312836885452271</v>
+        <v>0.8047173023223877</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2085,26 +2085,26 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：</t>
+          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>傳의 [逆流]에서 [以至]까지 正義曰：</t>
+          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9032797813415527</v>
+        <v>0.636443018913269</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2119,20 +2119,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者,</t>
+          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다.</t>
+          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.8463854789733887</v>
+        <v>0.777878999710083</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2147,20 +2147,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也.</t>
+          <t>箋云 未晞는 未為霜이라</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
+          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.7462173104286194</v>
+        <v>0.7634514570236206</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2175,20 +2175,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
+          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
+          <t>傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7635365724563599</v>
+        <v>0.7995520830154419</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2203,20 +2203,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
+          <t>彼言露晞, 謂露盡乾.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
+          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.7668221592903137</v>
+        <v>0.7963771224021912</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2231,20 +2231,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
+          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
+          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.798160195350647</v>
+        <v>0.8301315307617188</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2259,20 +2259,20 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
+          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8047173023223877</v>
+        <v>0.8604388833045959</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2287,20 +2287,20 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
+          <t>所謂伊人이 在水之湄언마는</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
+          <t>이른바 그분이 강물 가에 있건만</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.636443018913269</v>
+        <v>0.5352428555488586</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2315,20 +2315,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
+          <t>湄는 水隒(엄)이라</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
+          <t>湄는 ‘물가’이다.</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.777878999710083</v>
+        <v>0.7992644309997559</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2343,20 +2343,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>箋云 未晞는 未為霜이라</t>
+          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”謂水草交際之處, 水之岸也.釋山云</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
+          <t>傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다. ”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.7634514570236206</v>
+        <v>0.7979265451431274</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2371,20 +2371,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>傳‘晞 乾’ 正義曰：</t>
+          <t>“重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>傳의 [晞 乾] 正義曰：</t>
+          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다. ”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9361433982849121</v>
+        <v>0.770176887512207</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2399,20 +2399,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
+          <t>遡洄從之하니 道阻且躋러니</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
+          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.7301685214042664</v>
+        <v>0.6684041619300842</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2427,20 +2427,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>彼言露晞, 謂露盡乾.</t>
+          <t>躋는 升也라</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
+          <t>躋는 ‘오르막’이다.</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.7963771820068359</v>
+        <v>0.6008854508399963</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2455,20 +2455,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
+          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
+          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.8301314115524292</v>
+        <v>0.7134823799133301</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2483,20 +2483,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
+          <t>遡游從之하니 宛在水中坻(지)로다</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
+          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다네</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.8604387640953064</v>
+        <v>0.6089887022972107</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2511,20 +2511,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之湄언마는</t>
+          <t>坻는 小渚也라</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>이른바 그분이 강물 가에 있건만</t>
+          <t>坻는 작은 모래톱이다.</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.5352428555488586</v>
+        <v>0.6432160139083862</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2539,20 +2539,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>湄는 水隒(엄)이라</t>
+          <t>傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.”</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>湄는 ‘물가’이다.</t>
+          <t>傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.7992644309997559</v>
+        <v>0.8231055736541748</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2567,20 +2567,20 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”</t>
+          <t>然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.以渚易知, 故繫渚言之.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>傳의 [湄 水隒] 正義曰：</t>
+          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.7816818952560425</v>
+        <v>0.8220968246459961</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2595,20 +2595,20 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>謂水草交際之處, 水之岸也.</t>
+          <t>蒹葭采采하니 白露未已로다</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
+          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.6914339065551758</v>
+        <v>0.6772387027740479</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
+          <t>‘采采’는 ‘萋萋’와 같다.</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.7689713835716248</v>
+        <v>0.6614440679550171</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2645,26 +2645,26 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且躋러니</t>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
+          <t>‘未已’는 ‘未止’와 같다.</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.6684041619300842</v>
+        <v>0.6708110570907593</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2673,26 +2673,26 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>躋는 升也라</t>
+          <t>所謂伊人이 在水之涘(사)언마는</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>躋는 ‘오르막’이다.</t>
+          <t>이른바 그 분이 강가에 있건만</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.6008854508399963</v>
+        <v>0.5377265214920044</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2707,20 +2707,20 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
+          <t>涘는 厓也라</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.</t>
+          <t>涘는 ‘강가’이다.</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.7134823799133301</v>
+        <v>0.6128217577934265</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2735,20 +2735,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中坻(지)로다</t>
+          <t>遡洄從之하니 道阻且右러니</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다네</t>
+          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.6089887022972107</v>
+        <v>0.6598045825958252</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2763,20 +2763,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>坻는 小渚也라</t>
+          <t>右는 出其右也라</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>坻는 작은 모래톱이다.</t>
+          <t>右는 우측으로 돌아서 나가는 것이다.</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.6432160139083862</v>
+        <v>0.7739986181259155</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2791,20 +2791,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>傳‘坻 小渚’正義曰：</t>
+          <t>箋云 右者는 言其迂迴也라</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>傳의 [坻小渚] 正義曰：</t>
+          <t>箋云：右는 우회함을 말한 것이다.</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9063905477523804</v>
+        <v>0.798230767250061</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2819,20 +2819,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.</t>
+          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.</t>
+          <t>傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다. ’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.7863779067993164</v>
+        <v>0.8623654842376709</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2847,20 +2847,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>以渚易知, 故繫渚言之.</t>
+          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
+          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.6570646166801453</v>
+        <v>0.7017083764076233</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2875,20 +2875,20 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>蒹葭采采하니 白露未已로다</t>
+          <t>遡游從之하니 宛在水中沚로다</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
+          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.6772387027740479</v>
+        <v>0.5899494290351868</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2903,20 +2903,20 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>小渚曰沚라</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>‘采采’는 ‘萋萋’와 같다.</t>
+          <t>작은 모래톱을 沚라고 한다.</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.6614440679550171</v>
+        <v>0.5905945897102356</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2925,26 +2925,26 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>蒹葭 三章이니 章八句라</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>‘未已’는 ‘未止’와 같다.</t>
+          <t>&lt;蒹葭&gt; 3章이니 章마다 8句이다.</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.6708110570907593</v>
+        <v>0.7767410278320312</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2952,286 +2952,6 @@
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>target_rich</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>38</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>所謂伊人이 在水之涘(사)언마는</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>이른바 그 분이 강가에 있건만</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0.5377265214920044</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>39</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>涘는 厓也라</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>涘는 ‘강가’이다.</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0.6128217577934265</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>40</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>遡洄從之하니 道阻且右러니</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0.6598045825958252</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>41</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>右는 出其右也라</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>右는 우측으로 돌아서 나가는 것이다.</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0.7739986181259155</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>42</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>箋云 右者는 言其迂迴也라</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>箋云：右는 우회함을 말한 것이다.</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0.798230767250061</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>43</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>傳의 [右 出其右] 正義曰： 이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0.8634746670722961</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>43</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0.7017082571983337</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>44</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>遡游從之하니 宛在水中沚로다</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0.5899494290351868</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>45</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>小渚曰沚라</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>작은 모래톱을 沚라고 한다.</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0.5905945897102356</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>46</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>蒹葭 三章이니 章八句라</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>&lt;蒹葭&gt; 3章이니 章마다 8句이다.</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0.7767410278320312</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
         <is>
           <t>sequential_1to1</t>
         </is>

--- a/pa/output.xlsx
+++ b/pa/output.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7473182082176208</v>
+        <v>0.6743034885906884</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8371443152427673</v>
+        <v>0.5405659165337647</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8429751992225647</v>
+        <v>0.6663833335699747</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8253705501556396</v>
+        <v>0.7598408468707351</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7907205820083618</v>
+        <v>0.5263518149750573</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.705926775932312</v>
+        <v>0.441024032717669</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8928597569465637</v>
+        <v>0.4636741604720288</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6139363050460815</v>
+        <v>0.5139296512588888</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6563800573348999</v>
+        <v>0.6772882862045281</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8032606840133667</v>
+        <v>0.5370138706789572</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6418812274932861</v>
+        <v>0.5710014155175206</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8109756112098694</v>
+        <v>0.5109756587698141</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5941693782806396</v>
+        <v>0.3437479825796131</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7268454432487488</v>
+        <v>0.6551314267055111</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7893677949905396</v>
+        <v>0.7417988660506912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.883009672164917</v>
+        <v>0.5611947734569011</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6541114449501038</v>
+        <v>0.3212089439860188</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7660127878189087</v>
+        <v>0.4286301453953639</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7751446962356567</v>
+        <v>0.6053743670606577</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7416608333587646</v>
+        <v>0.2976675810294217</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7761338353157043</v>
+        <v>0.4761257875084474</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8214393258094788</v>
+        <v>0.5868805838271163</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5543035864830017</v>
+        <v>0.4915723691084867</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6846473217010498</v>
+        <v>0.4374020313892926</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8619853258132935</v>
+        <v>0.4790428656819363</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7535626888275146</v>
+        <v>0.3876056179367598</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6774843335151672</v>
+        <v>0.2963935740976248</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8081142902374268</v>
+        <v>0.4174451318962261</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.7750903964042664</v>
+        <v>0.4805761182825232</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7779960036277771</v>
+        <v>0.4931362891058645</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6496252417564392</v>
+        <v>0.452242932702815</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8199296593666077</v>
+        <v>0.8495117545044837</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7793343067169189</v>
+        <v>0.5273107518321835</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8566077947616577</v>
+        <v>0.7230416382779934</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.7095450758934021</v>
+        <v>0.3973419333116798</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7414759397506714</v>
+        <v>0.4387528741984677</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8168491125106812</v>
+        <v>0.73389977378655</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8231135606765747</v>
+        <v>0.6475858553634266</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.5618239641189575</v>
+        <v>0.3452555731554267</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5398732423782349</v>
+        <v>0.2732342834439353</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5873499512672424</v>
+        <v>0.304343910340669</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6520169377326965</v>
+        <v>0.4328039512682706</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8689559698104858</v>
+        <v>0.7000018334404583</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7793066501617432</v>
+        <v>0.7857675423019972</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6358833312988281</v>
+        <v>0.4072767698610673</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7251957058906555</v>
+        <v>0.4463005132669446</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8919433355331421</v>
+        <v>0.6821752760254132</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8623519539833069</v>
+        <v>0.7026107043811464</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.6352583169937134</v>
+        <v>0.5387460970406219</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.6300444006919861</v>
+        <v>0.3863449255802231</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8312837481498718</v>
+        <v>0.5931187393271997</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.6971477866172791</v>
+        <v>0.6968706130991233</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.7993549108505249</v>
+        <v>0.3716873749985102</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.6946289539337158</v>
+        <v>0.5497107627955946</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.7850691080093384</v>
+        <v>0.4954986887343831</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.7668221592903137</v>
+        <v>0.3861290155297268</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.7981603145599365</v>
+        <v>0.4909418412332129</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8047173023223877</v>
+        <v>0.7693160985102514</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.636443018913269</v>
+        <v>0.4004411587478217</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.777878999710083</v>
+        <v>0.6883855017940126</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.7634514570236206</v>
+        <v>0.719907211279909</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7995520830154419</v>
+        <v>0.6346660768449383</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.7963771224021912</v>
+        <v>0.5776927038217512</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8301315307617188</v>
+        <v>0.6951338124968726</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8604388833045959</v>
+        <v>0.6057961860165383</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.5352428555488586</v>
+        <v>0.2469248040159258</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.7992644309997559</v>
+        <v>0.664997316046769</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.7979265451431274</v>
+        <v>0.6773385162164326</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.770176887512207</v>
+        <v>0.5414792118482668</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.6684041619300842</v>
+        <v>0.3162463393532332</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.6008854508399963</v>
+        <v>0.4882438233054427</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.7134823799133301</v>
+        <v>0.47923560286808</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.6089887022972107</v>
+        <v>0.3063424195635974</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.6432160139083862</v>
+        <v>0.5662669337905479</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.8231055736541748</v>
+        <v>0.6987789752870318</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.8220968246459961</v>
+        <v>0.7183243138768276</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.6772387027740479</v>
+        <v>0.4355140612433351</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.6614440679550171</v>
+        <v>0.6577254270485263</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.6708110570907593</v>
+        <v>0.4976758773912755</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.5377265214920044</v>
+        <v>0.2812653299563516</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.6128217577934265</v>
+        <v>0.5306944118124213</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.6598045825958252</v>
+        <v>0.355588050928784</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.7739986181259155</v>
+        <v>0.3859058123387094</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.798230767250061</v>
+        <v>0.6081469188059594</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8623654842376709</v>
+        <v>0.6607568658931418</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.7017083764076233</v>
+        <v>0.5293871379887644</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.5899494290351868</v>
+        <v>0.3419277899033674</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5905945897102356</v>
+        <v>0.5092054802469561</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.7767410278320312</v>
+        <v>0.8031119812229623</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>

--- a/pa/output.xlsx
+++ b/pa/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也.</t>
+          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也. 襄公新得周地, 其民被周之德敎日久.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7598408468707351</v>
+        <v>0.7496557274694617</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
+          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也. 襄公新得周地, 其民被周之德敎日久.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5263518149750573</v>
+        <v>0.390050507484113</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
+          <t>今襄公未能用周禮以敎之. 禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也. 經三章, 皆言治國須禮之事.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.441024032717669</v>
+        <v>0.5639870928375226</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>經三章, 皆言治國須禮之事.</t>
+          <t>今襄公未能用周禮以敎之. 禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也. 經三章, 皆言治國須禮之事.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4636741604720288</v>
+        <v>0.4185028618934107</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ [正義曰]</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.4915723691084867</v>
+        <v>0.4417830326450587</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.4374020313892926</v>
+        <v>0.41753517412263</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4790428656819363</v>
+        <v>0.3597439069739088</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
+          <t>旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.3876056179367598</v>
+        <v>0.3810354642113402</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
+          <t>旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.2963935740976248</v>
+        <v>0.4890872211225044</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4174451318962261</v>
+        <v>0.4380292313083999</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
+          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣. 欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處. 在大水之一邊, 假喻以言遠. 旣言此人在水一邊, 因以水行為喻.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4805761182825232</v>
+        <v>0.4641196457903911</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.在大水之一邊, 假喻以言遠.旣言此人在水一邊, 因以水行為喻.</t>
+          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣. 欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處. 在大水之一邊, 假喻以言遠. 旣言此人在水一邊, 因以水行為喻.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4931362891058645</v>
+        <v>0.3634128328988683</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.何則?賢者, 難進而易退, 故不以敬順求之, 則不可得.欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
+          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得. 何則? 賢者, 難進而易退, 故不以敬順求之, 則不可得. 欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.452242932702815</v>
+        <v>0.4651529505473779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8495117545044837</v>
+        <v>0.7449657287469301</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5273107518321835</v>
+        <v>0.3923963077669553</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.”</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.7230416382779934</v>
+        <v>0.3530631429613892</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>祭義說養蠶之法云 “風戾以食之.”注云 “使露氣燥乃食蠶.”然則戾為燥之義.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.3973419333116798</v>
+        <v>0.3467892891833441</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.4387528741984677</v>
+        <v>0.185150717774149</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.73389977378655</v>
+        <v>0.3900605673430159</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6475858553634266</v>
+        <v>0.5884012358819659</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.3452555731554267</v>
+        <v>0.5370104009060205</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.2732342834439353</v>
+        <v>0.5068162120394476</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1591,16 +1591,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
+          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為 霜</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.304343910340669</v>
+        <v>0.4206059909907646</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1619,16 +1619,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
+          <t>然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.4328039512682706</v>
+        <v>0.3948606831521131</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1637,26 +1637,26 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다. ’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다. ’고 한 것이다.</t>
+          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.7000018334404583</v>
+        <v>0.3702419360308905</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1665,26 +1665,26 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.</t>
+          <t>箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
+          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다. ’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다. ’고 한 것이다.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7857675423019972</v>
+        <v>0.7000018334404583</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1703,16 +1703,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
+          <t>傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.4072767698610673</v>
+        <v>0.7385732532439735</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1731,16 +1731,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.”</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다. ”라고 한 것이다.</t>
+          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.4463005132669446</v>
+        <v>0.5145551572080118</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1759,16 +1759,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
+          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.6821752760254132</v>
+        <v>0.476054272314103</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1777,26 +1777,26 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
+          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다. ’라고 여겼다.</t>
+          <t>]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다. ”라고 한 것이다.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.7026107043811464</v>
+        <v>0.4723510911850666</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1811,20 +1811,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
+          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
+          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5387460970406219</v>
+        <v>0.5301323083434715</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1843,16 +1843,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
+          <t>箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다. ’라고 여겼다.</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.3863449255802231</v>
+        <v>0.6869152966819937</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1871,16 +1871,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
+          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5931187393271997</v>
+        <v>0.5419217468355464</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1895,20 +1895,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：</t>
+          <t>‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事. 一邊, 水傍, 下云‘</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
+          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.6968706130991233</v>
+        <v>0.3918155785038199</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1917,26 +1917,26 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.”</t>
+          <t>在湄’‘在涘’ 是其居水傍也.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다. ”라고 하였다.</t>
+          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.3716873749985102</v>
+        <v>0.6352030922753459</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1955,16 +1955,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
+          <t>傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.5497107627955946</v>
+        <v>0.7100445521545666</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
+          <t>”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.4954986887343831</v>
+        <v>0.4696117111978241</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2011,16 +2011,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
+          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.3861290155297268</v>
+        <v>0.546769423024965</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2039,16 +2039,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
+          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.4909418412332129</v>
+        <v>0.4745518431114496</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2067,16 +2067,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
+          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.7693160985102514</v>
+        <v>0.3689348527954708</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2085,26 +2085,26 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
+          <t>故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
+          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.4004411587478217</v>
+        <v>0.3615212762431278</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2113,26 +2113,26 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
+          <t>故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
+          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.6883855017940126</v>
+        <v>0.3976936511515896</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2141,26 +2141,26 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>箋云 未晞는 未為霜이라</t>
+          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
+          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.719907211279909</v>
+        <v>0.4004411587478217</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2175,20 +2175,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
+          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
+          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.6346660768449383</v>
+        <v>0.6883855017940126</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2203,20 +2203,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>彼言露晞, 謂露盡乾.</t>
+          <t>箋云 未晞는 未為霜이라</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
+          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.5776927038217512</v>
+        <v>0.719907211279909</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2235,16 +2235,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
+          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也. 彼言露晞, 謂露盡乾.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
+          <t>傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.6951338124968726</v>
+        <v>0.622220784618351</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2263,16 +2263,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
+          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也. 彼言露晞, 謂露盡乾.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
+          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.6057961860165383</v>
+        <v>0.5358801528724824</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2281,26 +2281,26 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之湄언마는</t>
+          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜, 與彼異, 故箋云 ‘未晞 未為霜也’.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>이른바 그분이 강물 가에 있건만</t>
+          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다. 그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.2469248040159258</v>
+        <v>0.7028170404547954</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2309,26 +2309,26 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湄는 水隒(엄)이라</t>
+          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜, 與彼異, 故箋云 ‘未晞 未為霜也’.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>湄는 ‘물가’이다.</t>
+          <t>[未晞 未為霜也]’라고 한 것이다.</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.664997316046769</v>
+        <v>0.6728995748300934</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2337,26 +2337,26 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”謂水草交際之處, 水之岸也.釋山云</t>
+          <t>所謂伊人이 在水之湄언마는</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다. ”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
+          <t>이른바 그분이 강물 가에 있건만</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.6773385162164326</v>
+        <v>0.2469248040159258</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2371,20 +2371,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>“重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
+          <t>湄는 水隒(엄)이라</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다. ”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
+          <t>湄는 ‘물가’이다.</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.5414792118482668</v>
+        <v>0.664997316046769</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2399,20 +2399,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且躋러니</t>
+          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.” 謂水草交際之處, 水之岸也.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
+          <t>傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다. ”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.3162463393532332</v>
+        <v>0.6946975593756352</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2427,20 +2427,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>躋는 升也라</t>
+          <t>釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>躋는 ‘오르막’이다.</t>
+          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다. ”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.4882438233054427</v>
+        <v>0.5275218839229604</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2455,20 +2455,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
+          <t>遡洄從之하니 道阻且躋러니</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.</t>
+          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.47923560286808</v>
+        <v>0.3162463393532332</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2483,20 +2483,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中坻(지)로다</t>
+          <t>躋는 升也라</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다네</t>
+          <t>躋는 ‘오르막’이다.</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.3063424195635974</v>
+        <v>0.4882438233054427</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2511,20 +2511,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>坻는 小渚也라</t>
+          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>坻는 작은 모래톱이다.</t>
+          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.5662669337905479</v>
+        <v>0.47923560286808</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2539,20 +2539,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.”</t>
+          <t>遡游從之하니 宛在水中坻(지)로다</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다. ”라고 하였다.</t>
+          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다 네</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6987789752870318</v>
+        <v>0.2976789429690118</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2567,20 +2567,20 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.以渚易知, 故繫渚言之.</t>
+          <t>坻는 小渚也라</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
+          <t>坻는 작은 모래톱이다.</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.7183243138768276</v>
+        <v>0.5662669337905479</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2595,20 +2595,20 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>蒹葭采采하니 白露未已로다</t>
+          <t>傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻,</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
+          <t>傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.4355140612433351</v>
+        <v>0.6656959302026643</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也. 以渚易知, 故繫渚言之.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>‘采采’는 ‘萋萋’와 같다.</t>
+          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.6577254270485263</v>
+        <v>0.7470665523128781</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2645,26 +2645,26 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>蒹葭采采하니 白露未已로다</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>‘未已’는 ‘未止’와 같다.</t>
+          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.4976758773912755</v>
+        <v>0.4355140612433351</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2673,26 +2673,26 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之涘(사)언마는</t>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강가에 있건만</t>
+          <t>‘采采’는 ‘萋萋’와 같다.</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.2812653299563516</v>
+        <v>0.6577254270485263</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2701,26 +2701,26 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>涘는 厓也라</t>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>涘는 ‘강가’이다.</t>
+          <t>‘未已’는 ‘未止’와 같다.</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.5306944118124213</v>
+        <v>0.4976758773912755</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2729,26 +2729,26 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且右러니</t>
+          <t>所謂伊人이 在水之涘(사)언마는</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
+          <t>이른바 그 분이 강가에 있건만</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.355588050928784</v>
+        <v>0.2812653299563516</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2763,20 +2763,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>右는 出其右也라</t>
+          <t>涘는 厓也라</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>右는 우측으로 돌아서 나가는 것이다.</t>
+          <t>涘는 ‘강가’이다.</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.3859058123387094</v>
+        <v>0.5306944118124213</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2791,20 +2791,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>箋云 右者는 言其迂迴也라</t>
+          <t>遡洄從之하니 道阻且右러니</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>箋云：右는 우회함을 말한 것이다.</t>
+          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.6081469188059594</v>
+        <v>0.355588050928784</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2819,20 +2819,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
+          <t>右는 出其右也라</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다. ’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
+          <t>右는 우측으로 돌아서 나가는 것이다.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.6607568658931418</v>
+        <v>0.3859058123387094</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2847,20 +2847,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
+          <t>箋云 右者는 言其迂迴也라</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
+          <t>箋云：右는 우회함을 말한 것이다.</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5293871379887644</v>
+        <v>0.6081469188059594</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2875,20 +2875,20 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中沚로다</t>
+          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也. 若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
+          <t>傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다. ’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.3419277899033674</v>
+        <v>0.6617175017434926</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2903,20 +2903,20 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>小渚曰沚라</t>
+          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>작은 모래톱을 沚라고 한다.</t>
+          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5092054802469561</v>
+        <v>0.5293871379887644</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2931,27 +2931,83 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>44</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>遡游從之하니 宛在水中沚로다</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.3419277899033674</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>小渚曰沚라</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>작은 모래톱을 沚라고 한다.</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5092054802469561</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
         <v>46</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>蒹葭 三章이니 章八句라</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>&lt;蒹葭&gt; 3章이니 章마다 8句이다.</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D92" t="n">
         <v>0.8031119812229623</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>sequential_1to1</t>
         </is>

--- a/pa/output.xlsx
+++ b/pa/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,16 +555,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也. 襄公新得周地, 其民被周之德敎日久.</t>
+          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
+          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7496557274694617</v>
+        <v>0.713099186141255</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -583,16 +583,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也. 襄公新得周地, 其民被周之德敎日久.</t>
+          <t>作蒹葭詩者, 刺襄公也.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
+          <t>&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.390050507484113</v>
+        <v>0.6342663278264908</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -611,16 +611,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>今襄公未能用周禮以敎之. 禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也. 經三章, 皆言治國須禮之事.</t>
+          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다.</t>
+          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5639870928375226</v>
+        <v>0.5263518149750573</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -639,16 +639,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>今襄公未能用周禮以敎之. 禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也. 經三章, 皆言治國須禮之事.</t>
+          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
+          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4185028618934107</v>
+        <v>0.441024032717669</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -657,26 +657,26 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
+          <t>經三章, 皆言治國須禮之事.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>갈대 무성하더니 白露 서리가 되었네</t>
+          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5139296512588888</v>
+        <v>0.4636741604720288</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -691,20 +691,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
+          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다.</t>
+          <t>갈대 무성하더니 白露 서리가 되었네</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6772882862045281</v>
+        <v>0.5139296512588888</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
+          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
+          <t>興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5370138706789572</v>
+        <v>0.6772882862045281</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -747,20 +747,20 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면</t>
+          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>箋云：갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다.</t>
+          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5710014155175206</v>
+        <v>0.5370138706789572</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -775,20 +775,20 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라</t>
+          <t>所謂伊人이 在水一方이언마는</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.</t>
+          <t>이른바 그 분이 강물 저쪽에 있건만</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5109756587698141</v>
+        <v>0.3437479825796131</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -803,20 +803,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水一方이언마는</t>
+          <t>伊는 維也라 一方은 難至矣라</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강물 저쪽에 있건만</t>
+          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3437479825796131</v>
+        <v>0.6551314267055111</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -831,20 +831,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>伊는 維也라 一方은 難至矣라</t>
+          <t>遡洄從之하니 道阻且長이러니</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
+          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6551314267055111</v>
+        <v>0.3212089439860188</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -859,20 +859,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
+          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>箋云：伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다.</t>
+          <t>물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7417988660506912</v>
+        <v>0.4286301453953639</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -887,20 +887,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라</t>
+          <t>遡游從之하니 宛在水中央이라</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.</t>
+          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.5611947734569011</v>
+        <v>0.2976675810294217</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -915,20 +915,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且長이러니</t>
+          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
+          <t>물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3212089439860188</v>
+        <v>0.4761257875084474</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -943,20 +943,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
+          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.</t>
+          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4286301453953639</v>
+        <v>0.5868805838271163</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -971,20 +971,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>箋云 此言不以敬順往求之면 則不能得見이라</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]：</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>箋云：이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.</t>
+          <t>經의 [蒹葭]에서 [中央]까지 正義曰：</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6053743670606577</v>
+        <v>0.8153888528922452</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -999,20 +999,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中央이라</t>
+          <t>毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
+          <t>毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2976675810294217</v>
+        <v>0.5401851939046812</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1027,20 +1027,20 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
+          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
+          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4761257875084474</v>
+        <v>0.3555024654848869</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1055,20 +1055,20 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
+          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.</t>
+          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5868805838271163</v>
+        <v>0.2003651463107316</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ [正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.</t>
+          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>經의 [蒹葭]에서 [中央]까지 正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
+          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.4417830326450587</v>
+        <v>0.2068517844506057</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1115,16 +1115,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ [正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.</t>
+          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
+          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.41753517412263</v>
+        <v>-0.01698619797992405</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1143,16 +1143,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ [正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.</t>
+          <t>然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
+          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3597439069739088</v>
+        <v>0.01810402353692775</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1161,26 +1161,26 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
+          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.3810354642113402</v>
+        <v>0.7931912183359232</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1189,26 +1189,26 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
+          <t>‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.4890872211225044</v>
+        <v>0.7993005585875107</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1217,26 +1217,26 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가. ”라고 여겼다.</t>
+          <t>蘆는 갈대이다.”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4380292313083999</v>
+        <v>-0.01920450221812564</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1245,26 +1245,26 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣. 欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處. 在大水之一邊, 假喻以言遠. 旣言此人在水一邊, 因以水行為喻.</t>
+          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다.</t>
+          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4641196457903911</v>
+        <v>0.4864217338656681</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1273,26 +1273,26 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣. 欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處. 在大水之一邊, 假喻以言遠. 旣言此人在水一邊, 因以水行為喻.</t>
+          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가. 큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다. 이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다. 물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다. 어째서인가? 현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.</t>
+          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3634128328988683</v>
+        <v>0.02129486488042124</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1301,26 +1301,26 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得. 何則? 賢者, 難進而易退, 故不以敬順求之, 則不可得. 欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
+          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다. ”라고 여겼다.</t>
+          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.4651529505473779</v>
+        <v>0.3089982521412523</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1339,16 +1339,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다. 蘆는 갈대이다.</t>
+          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.7449657287469301</v>
+        <v>0.02605300458927255</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1367,16 +1367,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
+          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.3923963077669553</v>
+        <v>0.02621937231913649</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1395,16 +1395,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다. ”라고 하였다.</t>
+          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.3530631429613892</v>
+        <v>0.3452555731554267</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다. ”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다. ”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
+          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.3467892891833441</v>
+        <v>0.2732342834439353</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1451,16 +1451,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
+          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.185150717774149</v>
+        <v>0.304343910340669</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1479,16 +1479,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
+          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.3900605673430159</v>
+        <v>0.4328039512682706</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1497,26 +1497,26 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>箋‘蒹葭’至‘則服’ 正義曰：</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
+          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5884012358819659</v>
+        <v>0.8763500805142993</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1525,26 +1525,26 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
+          <t>箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.5370104009060205</v>
+        <v>0.7116583262247383</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1553,26 +1553,26 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
+          <t>傳의 [伊維]에서 [難至]까지 正義曰：</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5068162120394476</v>
+        <v>0.7210073017242496</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1581,26 +1581,26 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>傳以詩剌未能用周禮, 則未得人心,</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為 霜</t>
+          <t>‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4206059909907646</v>
+        <v>0.1943357306461256</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1609,26 +1609,26 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>則所謂維, 是得人之道也.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
+          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.3948606831521131</v>
+        <v>0.00537208909133746</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1637,26 +1637,26 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
+          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.3702419360308905</v>
+        <v>0.01483010301407841</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1665,26 +1665,26 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
+          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다. ’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다. ’고 한 것이다.</t>
+          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7000018334404583</v>
+        <v>0.5301323083434715</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1699,20 +1699,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
+          <t>箋의 [伊當]에서 [言遠]까지 正義曰：</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.7385732532439735</v>
+        <v>0.8647223534923076</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1727,20 +1727,20 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
+          <t>箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5145551572080118</v>
+        <v>0.4580970853446803</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1755,20 +1755,20 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游</t>
+          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.476054272314103</v>
+        <v>-0.01769114338808613</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1783,20 +1783,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
+          <t>‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다. ”라고 한 것이다.</t>
+          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.4723510911850666</v>
+        <v>-0.02523967693171332</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1811,20 +1811,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
+          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
+          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5301323083434715</v>
+        <v>0.5931187393271995</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1839,20 +1839,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다. ’라고 여겼다.</t>
+          <t>傳의 [逆流]에서 [以至]까지 正義曰：</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.6869152966819937</v>
+        <v>0.003086026038798546</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1861,26 +1861,26 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
+          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者,</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
+          <t>≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다.</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5419217468355464</v>
+        <v>0.7647343270529759</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1889,26 +1889,26 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事. 一邊, 水傍, 下云‘</t>
+          <t>順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
+          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.3918155785038199</v>
+        <v>-0.01619680573469104</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1917,26 +1917,26 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>在湄’‘在涘’ 是其居水傍也.</t>
+          <t>此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
+          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.6352030922753459</v>
+        <v>0.01791308255958171</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1955,16 +1955,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
+          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
+          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.7100445521545666</v>
+        <v>0.3861290155297268</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
+          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다. ”라고 하였다.</t>
+          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.4696117111978241</v>
+        <v>0.4909418412332129</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -2011,16 +2011,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
+          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
+          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.546769423024965</v>
+        <v>0.7693160985102514</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2029,26 +2029,26 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,</t>
+          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
+          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.4745518431114496</v>
+        <v>0.4004411587478217</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2057,26 +2057,26 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
+          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.3689348527954708</v>
+        <v>0.6883855017940126</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2085,26 +2085,26 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>箋云 未晞는 未為霜이라</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
+          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.3615212762431278</v>
+        <v>0.719907211279909</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2113,26 +2113,26 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>傳‘晞 乾’ 正義曰：</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
+          <t>傳의 [晞 乾] 正義曰：</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.3976936511515896</v>
+        <v>0.7988420773983248</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2141,26 +2141,26 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
+          <t>湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
+          <t>&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.4004411587478217</v>
+        <v>0.6351223681467636</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2175,20 +2175,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
+          <t>彼言露晞, 謂露盡乾.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
+          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.6883855017940126</v>
+        <v>0.5776927038217512</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2203,20 +2203,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>箋云 未晞는 未為霜이라</t>
+          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
+          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.719907211279909</v>
+        <v>0.6951338124968726</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2235,16 +2235,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也. 彼言露晞, 謂露盡乾.</t>
+          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
+          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.622220784618351</v>
+        <v>0.6057961860165383</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2253,26 +2253,26 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也. 彼言露晞, 謂露盡乾.</t>
+          <t>所謂伊人이 在水之湄언마는</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
+          <t>이른바 그분이 강물 가에 있건만</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.5358801528724824</v>
+        <v>0.2469248040159258</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2281,26 +2281,26 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜, 與彼異, 故箋云 ‘未晞 未為霜也’.</t>
+          <t>湄는 水隒(엄)이라</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다. 그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.</t>
+          <t>湄는 ‘물가’이다.</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.7028170404547954</v>
+        <v>0.664997316046769</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2309,26 +2309,26 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜, 與彼異, 故箋云 ‘未晞 未為霜也’.</t>
+          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[未晞 未為霜也]’라고 한 것이다.</t>
+          <t>傳의 [湄 水隒] 正義曰：</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.6728995748300934</v>
+        <v>0.6051846615927514</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2337,26 +2337,26 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之湄언마는</t>
+          <t>謂水草交際之處, 水之岸也.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>이른바 그분이 강물 가에 있건만</t>
+          <t>≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.2469248040159258</v>
+        <v>0.4408573030444329</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2371,20 +2371,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>湄는 水隒(엄)이라</t>
+          <t>釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>湄는 ‘물가’이다.</t>
+          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.664997316046769</v>
+        <v>-0.008876255283996385</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2399,20 +2399,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.” 謂水草交際之處, 水之岸也.</t>
+          <t>遡洄從之하니 道阻且躋러니</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다. ”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
+          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.6946975593756352</v>
+        <v>0.3162463393532332</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2427,20 +2427,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
+          <t>躋는 升也라</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다. ”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
+          <t>躋는 ‘오르막’이다.</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.5275218839229604</v>
+        <v>0.4882438233054427</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2455,20 +2455,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且躋러니</t>
+          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>거슬러 올라가 따르려하니 길은 험하고 오르막이더니</t>
+          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.3162463393532332</v>
+        <v>0.47923560286808</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2483,20 +2483,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>躋는 升也라</t>
+          <t>遡游從之하니 宛在水中坻(지)로다</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>躋는 ‘오르막’이다.</t>
+          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다네</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.4882438233054427</v>
+        <v>0.3063424195635974</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2511,20 +2511,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라</t>
+          <t>坻는 小渚也라</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.</t>
+          <t>坻는 작은 모래톱이다.</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.47923560286808</v>
+        <v>0.5662669337905479</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2539,20 +2539,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中坻(지)로다</t>
+          <t>傳‘坻 小渚’正義曰：</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>물살 따라 가니 가만히 강 가운데 모래톱에 있다 네</t>
+          <t>傳의 [坻小渚] 正義曰：</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.2976789429690118</v>
+        <v>0.7694187358214284</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2567,20 +2567,20 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>坻는 小渚也라</t>
+          <t>釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>坻는 작은 모래톱이다.</t>
+          <t>≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.5662669337905479</v>
+        <v>0.6524346458575986</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2599,16 +2599,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻,</t>
+          <t>以渚易知, 故繫渚言之.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다. ”라고 하였다.</t>
+          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.6656959302026643</v>
+        <v>0.0147480870138752</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也. 以渚易知, 故繫渚言之.</t>
+          <t>蒹葭采采하니 白露未已로다</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
+          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.7470665523128781</v>
+        <v>0.4355140612433351</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2651,20 +2651,20 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>蒹葭采采하니 白露未已로다</t>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
+          <t>‘采采’는 ‘萋萋’와 같다.</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.4355140612433351</v>
+        <v>0.6577254270485263</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>‘采采’는 ‘萋萋’와 같다.</t>
+          <t>‘未已’는 ‘未止’와 같다.</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.6577254270485263</v>
+        <v>0.4976758773912755</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2707,20 +2707,20 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>所謂伊人이 在水之涘(사)언마는</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>‘未已’는 ‘未止’와 같다.</t>
+          <t>이른바 그 분이 강가에 있건만</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.4976758773912755</v>
+        <v>0.2812653299563516</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2729,26 +2729,26 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之涘(사)언마는</t>
+          <t>涘는 厓也라</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강가에 있건만</t>
+          <t>涘는 ‘강가’이다.</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.2812653299563516</v>
+        <v>0.5306944118124213</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2763,20 +2763,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>涘는 厓也라</t>
+          <t>遡洄從之하니 道阻且右러니</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>涘는 ‘강가’이다.</t>
+          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.5306944118124213</v>
+        <v>0.355588050928784</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2791,20 +2791,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且右러니</t>
+          <t>右는 出其右也라</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
+          <t>右는 우측으로 돌아서 나가는 것이다.</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.355588050928784</v>
+        <v>0.3859058123387094</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2819,20 +2819,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>右는 出其右也라</t>
+          <t>箋云 右者는 言其迂迴也라</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>右는 우측으로 돌아서 나가는 것이다.</t>
+          <t>箋云：右는 우회함을 말한 것이다.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.3859058123387094</v>
+        <v>0.6081469188059594</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2847,20 +2847,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>箋云 右者는 言其迂迴也라</t>
+          <t>遡游從之하니 宛在水中沚로다</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>箋云：右는 우회함을 말한 것이다.</t>
+          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.6081469188059594</v>
+        <v>0.3419277899033674</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2875,20 +2875,20 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也. 若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
+          <t>小渚曰沚라</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다. ’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
+          <t>작은 모래톱을 沚라고 한다.</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.6617175017434926</v>
+        <v>0.5092054802469561</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2903,20 +2903,20 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
+          <t>蒹葭 三章이니 章八句라</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
+          <t>&lt;蒹葭&gt; 3章이니 章마다 8句이다.</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5293871379887644</v>
+        <v>0.8031119812229623</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2924,90 +2924,6 @@
         </is>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>44</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>遡游從之하니 宛在水中沚로다</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0.3419277899033674</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>45</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>小渚曰沚라</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>작은 모래톱을 沚라고 한다.</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0.5092054802469561</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sequential_1to1</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>46</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>蒹葭 三章이니 章八句라</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>&lt;蒹葭&gt; 3章이니 章마다 8句이다.</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0.8031119812229623</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
         <is>
           <t>sequential_1to1</t>
         </is>

--- a/pa/output.xlsx
+++ b/pa/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6743034885906884</v>
+        <v>0.7473182082176208</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5405659165337647</v>
+        <v>0.8371443152427673</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6663833335699747</v>
+        <v>0.8429751992225647</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,16 +555,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：</t>
+          <t>‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：</t>
+          <t>序의 [蒹葭]에서 [國焉]까지 正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.713099186141255</v>
+        <v>0.8253705501556396</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -583,16 +583,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>作蒹葭詩者, 刺襄公也.</t>
+          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.</t>
+          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6342663278264908</v>
+        <v>0.7907205820083618</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -611,16 +611,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>襄公新得周地, 其民被周之德敎日久.今襄公未能用周禮以敎之.</t>
+          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.</t>
+          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5263518149750573</v>
+        <v>0.705926775932312</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -639,16 +639,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也.</t>
+          <t>經三章, 皆言治國須禮之事.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다.</t>
+          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.441024032717669</v>
+        <v>0.8928597569465637</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -663,20 +663,20 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>經三章, 皆言治國須禮之事.</t>
+          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.</t>
+          <t>갈대 무성하더니 白露 서리가 되었네</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4636741604720288</v>
+        <v>0.6139363050460815</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -691,20 +691,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>蒹葭蒼蒼이러니 白露為霜이로다</t>
+          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>갈대 무성하더니 白露 서리가 되었네</t>
+          <t>興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5139296512588888</v>
+        <v>0.6563800573348999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라</t>
+          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다.</t>
+          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6772882862045281</v>
+        <v>0.8032606840133667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -747,20 +747,20 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라</t>
+          <t>箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.</t>
+          <t>箋云：갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5370138706789572</v>
+        <v>0.6418812274932861</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -775,20 +775,20 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水一方이언마는</t>
+          <t>則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강물 저쪽에 있건만</t>
+          <t>興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3437479825796131</v>
+        <v>0.8109756112098694</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -803,20 +803,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>伊는 維也라 一方은 難至矣라</t>
+          <t>所謂伊人이 在水一方이언마는</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
+          <t>이른바 그 분이 강물 저쪽에 있건만</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6551314267055111</v>
+        <v>0.5941693782806396</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -831,20 +831,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且長이러니</t>
+          <t>伊는 維也라 一方은 難至矣라</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
+          <t>伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.3212089439860188</v>
+        <v>0.7268454432487488</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -859,20 +859,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
+          <t>箋云 伊當作繄(예)니 繄는 猶是也라</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.</t>
+          <t>箋云：伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.4286301453953639</v>
+        <v>0.7893677949905396</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -887,20 +887,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中央이라</t>
+          <t>所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
+          <t>이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2976675810294217</v>
+        <v>0.883009672164917</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -915,20 +915,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
+          <t>遡洄從之하니 道阻且長이러니</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
+          <t>물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.4761257875084474</v>
+        <v>0.6541114449501038</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -943,20 +943,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
+          <t>逆流而上曰遡洄라 逆禮면 則莫能以至也라</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.</t>
+          <t>물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5868805838271163</v>
+        <v>0.7660127878189087</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -971,20 +971,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>‘蒹葭’至‘中央’ [正義曰]：</t>
+          <t>箋云 此言不以敬順往求之면 則不能得見이라</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>經의 [蒹葭]에서 [中央]까지 正義曰：</t>
+          <t>箋云：이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8153888528922452</v>
+        <v>0.7751446962356567</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -999,20 +999,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
+          <t>遡游從之하니 宛在水中央이라</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
+          <t>물살을 따라 건너가 따르니 가만히 강 가운데에 있네</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5401851939046812</v>
+        <v>0.7416608333587646</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1027,20 +1027,20 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
+          <t>順流而涉曰遡游라 順禮求濟면 道來迎之라</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
+          <t>물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3555024654848869</v>
+        <v>0.7761338353157043</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1055,20 +1055,20 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
+          <t>箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
+          <t>箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2003651463107316</v>
+        <v>0.8214393258094788</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
+          <t>‘蒹葭’至‘中央’ [正義曰]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
+          <t>經의 [蒹葭]에서 [中央]까지 正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2068517844506057</v>
+        <v>0.5543035864830017</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1115,16 +1115,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.</t>
+          <t>：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
+          <t>이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.01698619797992405</v>
+        <v>0.6846473217010498</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1143,16 +1143,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
+          <t>今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.</t>
+          <t>지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.01810402353692775</v>
+        <v>0.8619853258132935</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1167,20 +1167,20 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>傳‘蒹葭’至‘後興’ 正義曰：</t>
+          <t>所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊.旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：</t>
+          <t>이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7931912183359232</v>
+        <v>0.7535626888275146</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1195,20 +1195,20 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
+          <t>若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.</t>
+          <t>물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은,</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.7993005585875107</v>
+        <v>0.6774843335151672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1223,20 +1223,20 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
+          <t>若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蘆는 갈대이다.”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
+          <t>禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가. ”라고 여겼다.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.01920450221812564</v>
+        <v>0.8081142902374268</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1251,20 +1251,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義.</t>
+          <t>鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.</t>
+          <t>鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4864217338656681</v>
+        <v>0.7750903964042664</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1279,20 +1279,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
+          <t>欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.在大水之一邊, 假喻以言遠.旣言此人在水一邊, 因以水行為喻.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
+          <t>周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가. 큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다. 이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다. 물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다. 어째서인가? 현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.02129486488042124</v>
+        <v>0.7779960036277771</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1307,20 +1307,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
+          <t>若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.何則?賢者, 難進而易退, 故不以敬順求之, 則不可得.欲令襄公敬順求知禮之賢人, 以敎其國也.”</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
+          <t>襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다. ”라고 여겼다.</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3089982521412523</v>
+        <v>0.6496252417564392</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1339,16 +1339,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中.</t>
+          <t>傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
+          <t>傳의 [蒹葭]에서 [後興]까지 正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다. 蘆는 갈대이다.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.02605300458927255</v>
+        <v>0.8199296593666077</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1367,16 +1367,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
+          <t>蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
+          <t>”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.02621937231913649</v>
+        <v>0.7793343067169189</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1395,16 +1395,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
+          <t>靑․徐州人謂之蘆, 兗州․遼東通語也.”</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
+          <t>靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.3452555731554267</v>
+        <v>0.8566077947616577</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
+          <t>祭義說養蠶之法云 “風戾以食之.”注云 “使露氣燥乃食蠶.”然則戾為燥之義.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
+          <t>≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다. ”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다. ”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.2732342834439353</v>
+        <v>0.7095450758934021</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1451,16 +1451,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
+          <t>下章‘未睎’, 謂露未乾(간)為霜.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
+          <t>下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.304343910340669</v>
+        <v>0.7414759397506714</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1479,16 +1479,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
+          <t>然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
+          <t>그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.4328039512682706</v>
+        <v>0.8168491125106812</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1503,20 +1503,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>箋‘蒹葭’至‘則服’ 正義曰：</t>
+          <t>八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：</t>
+          <t>8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8763500805142993</v>
+        <v>0.8231135606765747</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1531,20 +1531,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
+          <t>七月云 “八月萑葦”, 則八月葦已成.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.</t>
+          <t>‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.7116583262247383</v>
+        <v>0.5618239641189575</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1559,20 +1559,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.</t>
+          <t>此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>傳의 [伊維]에서 [難至]까지 正義曰：</t>
+          <t>&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.7210073017242496</v>
+        <v>0.5398732423782349</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1587,20 +1587,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>傳以詩剌未能用周禮, 則未得人心,</t>
+          <t>此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
+          <t>&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1943357306461256</v>
+        <v>0.5873499512672424</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1615,20 +1615,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>則所謂維, 是得人之道也.</t>
+          <t>此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
+          <t>여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.00537208909133746</v>
+        <v>0.6520169377326965</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1643,20 +1643,20 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
+          <t>箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다.</t>
+          <t>箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다. ’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다. ’고 한 것이다.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.01483010301407841</v>
+        <v>0.8689559698104858</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1675,16 +1675,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
+          <t>傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文.傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
+          <t>傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5301323083434715</v>
+        <v>0.7793066501617432</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1699,20 +1699,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：</t>
+          <t>下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>箋의 [伊當]에서 [言遠]까지 正義曰：</t>
+          <t>傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8647223534923076</v>
+        <v>0.6358833312988281</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1721,26 +1721,26 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>箋‘伊當’至‘言遠’正義曰：</t>
+          <t>須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.”</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.</t>
+          <t>下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다. ”라고 한 것이다.</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.4580970853446803</v>
+        <v>0.7251957058906555</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1749,26 +1749,26 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人,</t>
+          <t>‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
+          <t>‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.01769114338808613</v>
+        <v>0.8919433355331421</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
@@ -1787,16 +1787,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
+          <t>箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다. ’라고 여겼다.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.02523967693171332</v>
+        <v>0.8623519539833069</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1815,16 +1815,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
+          <t>箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳,</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
+          <t>그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5931187393271995</v>
+        <v>0.6352583169937134</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1839,20 +1839,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>傳‘逆流’至‘以至’ 正義曰：</t>
+          <t>以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>傳의 [逆流]에서 [以至]까지 正義曰：</t>
+          <t>그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.003086026038798546</v>
+        <v>0.6300444006919861</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1861,26 +1861,26 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者,</t>
+          <t>一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다.</t>
+          <t>一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.7647343270529759</v>
+        <v>0.8312837481498718</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -1899,16 +1899,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也.</t>
+          <t>傳‘逆流’至‘以至’ 正義曰：</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
+          <t>傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.01619680573469104</v>
+        <v>0.6971477866172791</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
+          <t>釋水云“逆流而上曰遡洄, 順流而下曰遡游.”</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
+          <t>”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.01791308255958171</v>
+        <v>0.7993549108505249</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1955,16 +1955,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
+          <t>孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
+          <t>그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.3861290155297268</v>
+        <v>0.6946289539337158</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
+          <t>然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
+          <t>그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.4909418412332129</v>
+        <v>0.7850691080093384</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2011,16 +2011,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
+          <t>上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
+          <t>위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.7693160985102514</v>
+        <v>0.7668221592903137</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2035,20 +2035,20 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
+          <t>(未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
+          <t>‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.4004411587478217</v>
+        <v>0.7981603145599365</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2063,20 +2063,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
+          <t>箋以伊人為知禮之人, 故易傳以為求賢之事.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
+          <t>箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.6883855017940126</v>
+        <v>0.8047173023223877</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2091,20 +2091,20 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>箋云 未晞는 未為霜이라</t>
+          <t>蒹葭萋(처)萋하니 白露未晞로다</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
+          <t>갈대 무성하니 白露 아직 마르지 않았네</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.719907211279909</v>
+        <v>0.636443018913269</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2119,20 +2119,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>傳‘晞 乾’ 正義曰：</t>
+          <t>萋萋는 猶蒼蒼也라 晞는 乾(간)也라</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>傳의 [晞 乾] 正義曰：</t>
+          <t>‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.7988420773983248</v>
+        <v>0.777878999710083</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2147,20 +2147,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
+          <t>箋云 未晞는 未為霜이라</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
+          <t>箋云：‘未晞’는 아직 서리가 되지 않은 것이다.</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.6351223681467636</v>
+        <v>0.7634514570236206</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2179,16 +2179,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>彼言露晞, 謂露盡乾.</t>
+          <t>傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
+          <t>傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.5776927038217512</v>
+        <v>0.7995520830154419</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2207,16 +2207,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
+          <t>彼言露晞, 謂露盡乾.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
+          <t>&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.6951338124968726</v>
+        <v>0.7963771224021912</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2235,16 +2235,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
+          <t>此篇上章言白露為霜, 則此言未晞, 謂未乾為霜,</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
+          <t>그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.6057961860165383</v>
+        <v>0.8301315307617188</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2259,20 +2259,20 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之湄언마는</t>
+          <t>與彼異, 故箋云 ‘未晞 未為霜也’.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>이른바 그분이 강물 가에 있건만</t>
+          <t>그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2469248040159258</v>
+        <v>0.8604388833045959</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2287,20 +2287,20 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>湄는 水隒(엄)이라</t>
+          <t>所謂伊人이 在水之湄언마는</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>湄는 ‘물가’이다.</t>
+          <t>이른바 그분이 강물 가에 있건만</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.664997316046769</v>
+        <v>0.5352428555488586</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2315,20 +2315,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”</t>
+          <t>湄는 水隒(엄)이라</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>傳의 [湄 水隒] 正義曰：</t>
+          <t>湄는 ‘물가’이다.</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.6051846615927514</v>
+        <v>0.7992644309997559</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>謂水草交際之處, 水之岸也.</t>
+          <t>傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.”謂水草交際之處, 水之岸也.釋山云</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
+          <t>傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다. ”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.4408573030444329</v>
+        <v>0.7979265451431274</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2375,16 +2375,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
+          <t>“重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
+          <t>≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다. ”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-0.008876255283996385</v>
+        <v>0.770176887512207</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.3162463393532332</v>
+        <v>0.6684041619300842</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.4882438233054427</v>
+        <v>0.6008854508399963</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.47923560286808</v>
+        <v>0.7134823799133301</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.3063424195635974</v>
+        <v>0.6089887022972107</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.5662669337905479</v>
+        <v>0.6432160139083862</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2543,16 +2543,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>傳‘坻 小渚’正義曰：</t>
+          <t>傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.”</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>傳의 [坻小渚] 正義曰：</t>
+          <t>傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다. ”라고 하였다.</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.7694187358214284</v>
+        <v>0.8231055736541748</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2571,16 +2571,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.</t>
+          <t>然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也.以渚易知, 故繫渚言之.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.</t>
+          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.6524346458575986</v>
+        <v>0.8220968246459961</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2595,20 +2595,20 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>以渚易知, 故繫渚言之.</t>
+          <t>蒹葭采采하니 白露未已로다</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.</t>
+          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.0147480870138752</v>
+        <v>0.6772387027740479</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>蒹葭采采하니 白露未已로다</t>
+          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>갈대 무성하니 白露 아직 그치지 않았네</t>
+          <t>‘采采’는 ‘萋萋’와 같다.</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.4355140612433351</v>
+        <v>0.6614440679550171</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>sequential_1to1</t>
+          <t>target_rich</t>
         </is>
       </c>
     </row>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>‘采采’는 ‘萋萋’와 같다.</t>
+          <t>‘未已’는 ‘未止’와 같다.</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.6577254270485263</v>
+        <v>0.6708110570907593</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2679,20 +2679,20 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>采采는 猶萋萋也라 未已는 猶未止也라</t>
+          <t>所謂伊人이 在水之涘(사)언마는</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>‘未已’는 ‘未止’와 같다.</t>
+          <t>이른바 그 분이 강가에 있건만</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.4976758773912755</v>
+        <v>0.5377265214920044</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2701,26 +2701,26 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>target_rich</t>
+          <t>sequential_1to1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>所謂伊人이 在水之涘(사)언마는</t>
+          <t>涘는 厓也라</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>이른바 그 분이 강가에 있건만</t>
+          <t>涘는 ‘강가’이다.</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.2812653299563516</v>
+        <v>0.6128217577934265</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2735,20 +2735,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>涘는 厓也라</t>
+          <t>遡洄從之하니 道阻且右러니</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>涘는 ‘강가’이다.</t>
+          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.5306944118124213</v>
+        <v>0.6598045825958252</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2763,20 +2763,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>遡洄從之하니 道阻且右러니</t>
+          <t>右는 出其右也라</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>물살 거슬러 따라가니 길이 험하고 우회하더니</t>
+          <t>右는 우측으로 돌아서 나가는 것이다.</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.355588050928784</v>
+        <v>0.7739986181259155</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2791,20 +2791,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>右는 出其右也라</t>
+          <t>箋云 右者는 言其迂迴也라</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>右는 우측으로 돌아서 나가는 것이다.</t>
+          <t>箋云：右는 우회함을 말한 것이다.</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.3859058123387094</v>
+        <v>0.798230767250061</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2819,20 +2819,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>箋云 右者는 言其迂迴也라</t>
+          <t>傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.若正與相當, 行則易到, 今乃出其右廂, 是難至也.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>箋云：右는 우회함을 말한 것이다.</t>
+          <t>傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다. ’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.6081469188059594</v>
+        <v>0.8623654842376709</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2847,20 +2847,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>遡游從之하니 宛在水中沚로다</t>
+          <t>箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
+          <t>그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.3419277899033674</v>
+        <v>0.7017083764076233</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2875,20 +2875,20 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>小渚曰沚라</t>
+          <t>遡游從之하니 宛在水中沚로다</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>작은 모래톱을 沚라고 한다.</t>
+          <t>물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.5092054802469561</v>
+        <v>0.5899494290351868</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2903,27 +2903,55 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>45</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>小渚曰沚라</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>작은 모래톱을 沚라고 한다.</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.5905945897102356</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sequential_1to1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
         <v>46</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>蒹葭 三章이니 章八句라</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>&lt;蒹葭&gt; 3章이니 章마다 8句이다.</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>0.8031119812229623</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>spacy_lg</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
+      <c r="D90" t="n">
+        <v>0.7767410278320312</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>spacy_lg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>sequential_1to1</t>
         </is>
